--- a/Documentation/Variables de configuration XML.xlsx
+++ b/Documentation/Variables de configuration XML.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
   <si>
     <t>shape_point_technique_path</t>
   </si>
@@ -222,7 +222,40 @@
     <t>graceTHD_path</t>
   </si>
   <si>
-    <t>Champ XML</t>
+    <t>Chemins</t>
+  </si>
+  <si>
+    <t>Formats de nommage</t>
+  </si>
+  <si>
+    <t>Variables de nommage</t>
+  </si>
+  <si>
+    <t>code_zasro</t>
+  </si>
+  <si>
+    <t>code_etr</t>
+  </si>
+  <si>
+    <t>branche_optique</t>
+  </si>
+  <si>
+    <t>pt1</t>
+  </si>
+  <si>
+    <t>pt2</t>
+  </si>
+  <si>
+    <t>insee</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>commune</t>
+  </si>
+  <si>
+    <t>canton</t>
   </si>
 </sst>
 </file>
@@ -260,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -284,14 +317,55 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -300,23 +374,25 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -326,21 +402,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -354,21 +415,6 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -386,18 +432,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,435 +757,459 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" customWidth="1"/>
+    <col min="2" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="B1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="B4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+      <c r="B5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+      <c r="B7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+      <c r="B8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
+      <c r="B9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
+      <c r="B10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
+      <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
+      <c r="B12" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
+      <c r="B13" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
+      <c r="B14" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
+      <c r="B15" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="B16" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="B17" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="B18" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="B19" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
+      <c r="B20" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="B21" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="6" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="6" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="6" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="6" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="6" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="6" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="6" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="6" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="6" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="6" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="6" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="6" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="6" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="6" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="6" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="6" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="6" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="6" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="6" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="7"/>
-      <c r="B69" s="8" t="s">
+    <row r="69" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:B69">
-    <sortCondition ref="B1"/>
+  <sortState ref="A2:A69">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
